--- a/data/trans_camb/P25A_10_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25A_10_R2-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>10,47</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,71</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7,43</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 11,36</t>
+          <t>0,0; 18,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,27</t>
+          <t>0,0; 10,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 5,93</t>
+          <t>0,0; 11,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 3,6</t>
+          <t>-10,64; 6,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 6,08</t>
+          <t>-10,79; 7,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 2,87</t>
+          <t>-2,71; 25,95</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 7,43</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-5,35; 5,38</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0,23; 18,01</t>
         </is>
       </c>
     </row>
@@ -687,22 +748,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,95%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-22,42%</t>
+          <t>-34,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>58,85%</t>
+          <t>-46,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-5,85%</t>
+          <t>169,31%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>34,19%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-21,95%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>230,73%</t>
         </is>
       </c>
     </row>
@@ -725,22 +801,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-69,17; 248,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-80,95; 157,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,34; 350,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-74,13; 217,13</t>
+          <t>-51,58; 1057,44</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-31,56; 1538,46</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>2,26</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,09</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,19</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,32</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 0,66</t>
+          <t>-4,03; 1,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 1,31</t>
+          <t>-3,85; 1,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 2,18</t>
+          <t>-2,59; 3,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 6,57</t>
+          <t>-4,82; 2,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 0,78</t>
+          <t>-3,4; 4,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 2,84</t>
+          <t>-2,51; 7,27</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-3,36; 0,94</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-2,46; 1,98</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 4,34</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-52,75%</t>
+          <t>-51,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-23,58%</t>
+          <t>-43,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,91%</t>
+          <t>37,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>48,22%</t>
+          <t>-36,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-23,3%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,5%</t>
+          <t>61,97%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-41,71%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-7,42%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>50,73%</t>
         </is>
       </c>
     </row>
@@ -881,22 +1017,37 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-69,61; 134,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,35; 357,43</t>
+          <t>-85,75; 205,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-70,0; 64,65</t>
+          <t>-63,32; 245,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,97; 197,55</t>
+          <t>-49,09; 421,47</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-85,35; 100,55</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-63,61; 128,77</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-39,26; 280,9</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-1,21</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 1,28</t>
+          <t>-2,54; 2,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 1,04</t>
+          <t>-3,44; 1,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 0,62</t>
+          <t>-4,33; 0,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,89; -0,27</t>
+          <t>-4,13; 1,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 0,46</t>
+          <t>-4,5; 0,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,74; -0,13</t>
+          <t>-2,37; 5,71</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-2,64; 1,28</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-3,33; 0,32</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-1,8; 3,19</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-34,34%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-39,92%</t>
+          <t>-52,34%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-50,6%</t>
+          <t>-55,79%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-77,05%</t>
+          <t>-41,09%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-47,17%</t>
+          <t>-58,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-68,75%</t>
+          <t>59,37%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-28,48%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-57,15%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>20,86%</t>
         </is>
       </c>
     </row>
@@ -1037,29 +1233,44 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-85,42; 67,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 26,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-82,11; 42,35</t>
+          <t>-100,0; 198,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-94,0; 4,72</t>
+          <t>-69,32; 422,32</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-84,51; 167,13</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 120,91</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-61,71; 317,61</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 0,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 0,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 2,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 0,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 0,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-16,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-22,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-11,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-15,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-14,66%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-66,03; 311,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-79,75; 181,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-57,31; 34,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-55,37; 78,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-53,6; 33,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-52,44; 49,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-1,34</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,8</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3,77</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,63</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 2,14</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,09; 1,16</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,23; 2,45</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-3,68; 0,98</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-3,29; 1,81</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0,48; 7,41</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,16; 0,89</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,13; 0,76</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 4,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>23,67%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-27,11%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>47,24%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-37,32%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-22,18%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>105,07%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-23,85%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-25,35%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>86,52%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-79,16; 625,25</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 490,8</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-78,35; 657,39</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-74,2; 55,43</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-66,31; 82,08</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2,45; 296,22</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-63,75; 52,04</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-63,69; 41,51</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>2,02; 253,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
